--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2938.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2938.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9356417954933264</v>
+        <v>1.485269784927368</v>
       </c>
       <c r="B1">
-        <v>1.745652549056928</v>
+        <v>1.525351524353027</v>
       </c>
       <c r="C1">
-        <v>6.857935428895312</v>
+        <v>3.683701753616333</v>
       </c>
       <c r="D1">
-        <v>3.311141146737608</v>
+        <v>2.319546937942505</v>
       </c>
       <c r="E1">
-        <v>1.510865275374323</v>
+        <v>0.8427765965461731</v>
       </c>
     </row>
   </sheetData>
